--- a/veriler_donusturulmus.xlsx
+++ b/veriler_donusturulmus.xlsx
@@ -1041,17 +1041,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="19.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="15.1428571428571" customWidth="1"/>
+    <col min="4" max="16384" width="8.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1067,123 +1068,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1680000000000</v>
+        <v>1750772388616</v>
       </c>
       <c r="B2" s="2">
-        <v>45013.4444444445</v>
+        <v>45832.5693126852</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1750534663010</v>
+        <v>1680000000000</v>
       </c>
       <c r="B3" s="2">
-        <v>45829.817858912</v>
+        <v>45013.4444444445</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1707780000000</v>
+        <v>1750774469476</v>
       </c>
       <c r="B4" s="2">
-        <v>45334.9722222222</v>
+        <v>45832.593396713</v>
       </c>
       <c r="C4">
-        <v>245</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1733450000000</v>
+        <v>1750534663010</v>
       </c>
       <c r="B5" s="2">
-        <v>45632.0787037037</v>
+        <v>45829.817858912</v>
       </c>
       <c r="C5">
-        <v>246</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1733530000000</v>
+        <v>1707780000000</v>
       </c>
       <c r="B6" s="2">
-        <v>45633.0046296296</v>
+        <v>45334.9722222222</v>
       </c>
       <c r="C6">
-        <v>280</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1733530000000</v>
+        <v>1733450000000</v>
       </c>
       <c r="B7" s="2">
-        <v>45633.0046296296</v>
+        <v>45632.0787037037</v>
       </c>
       <c r="C7">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1734950000000</v>
+        <v>1733530000000</v>
       </c>
       <c r="B8" s="2">
-        <v>45649.4398148148</v>
+        <v>45633.0046296296</v>
       </c>
       <c r="C8">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1734730000000</v>
+        <v>1733530000000</v>
       </c>
       <c r="B9" s="2">
-        <v>45646.8935185185</v>
+        <v>45633.0046296296</v>
       </c>
       <c r="C9">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
+        <v>1734950000000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45649.4398148148</v>
+      </c>
+      <c r="C10">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1734730000000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45646.8935185185</v>
+      </c>
+      <c r="C11">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>1746657712155</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="2">
         <v>45784.9457425347</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1194,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1205,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1216,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1227,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1238,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1249,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1260,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1271,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1282,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1293,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1304,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1315,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1326,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1337,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1348,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1359,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1370,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1381,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1392,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1403,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1414,18 +1415,18 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
-        <v>1747786671707</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45798.0124040162</v>
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1436,18 +1437,18 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
+      <c r="A36">
+        <v>1747786671707</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45798.0124040162</v>
       </c>
       <c r="C36">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1458,17 +1459,39 @@
         <v>3</v>
       </c>
       <c r="C37">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>1750409464953</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B40" s="2">
         <v>45828.3688073264</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>503</v>
       </c>
     </row>
